--- a/va_facility_data_2025-02-20/Kansas City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Kansas%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kansas City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Kansas%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R6248f014a72f4538b4dadc2dacf7e65d"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R35d42be46e394d1ab8794b5355f03fbb"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd124ae935ff24fd192b510a03edd470c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R4096df39b2d94639b5194c70e245ee1a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb01ddc9d4c0a40a09300fa72111b249a"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R54dfd486edab467baa1ecc40db063699"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R4d47c9fce93d4ef1a8b25633d3d45406"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rdc60ef3594ac4cfa8a59121fce6fa3ee"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rec444049e7984b2bada55dbd948bca8e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R7ef3f37e4dbb4cc9b0a2e9a209827086"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R1dc1029d4e964950a0a4c3e5c9c29776"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re17aef9f365540319bc58b07f743bc85"/>
   </x:sheets>
 </x:workbook>
 </file>
